--- a/Data/Alle_with_scores_new.xlsx
+++ b/Data/Alle_with_scores_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metrohmcom-my.sharepoint.com/personal/andrea_scheck_metrohm_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE493587-9FDF-40E7-9034-8E4F45BFAB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{AE493587-9FDF-40E7-9034-8E4F45BFAB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB07D366-33EF-425D-8FB6-7F9593AE0EB0}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="803" activeTab="1" xr2:uid="{5A3A3390-AD50-4680-BBF4-5341B9A4109E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="803" activeTab="1" xr2:uid="{5A3A3390-AD50-4680-BBF4-5341B9A4109E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Texte" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="382">
   <si>
     <t>Source</t>
   </si>
@@ -1930,6 +1930,70 @@
   </si>
   <si>
     <t>Why breastfeed?</t>
+  </si>
+  <si>
+    <t>Why did I not die in the womb?
+Having exited from the womb, did I not immediately perish?
+Why taken by the knees?
+Why suckled at the breasts?
+Now indeed, sleeping, I would be silent, and in my sleep I would find rest.</t>
+  </si>
+  <si>
+    <t>Why did I not die in the womb?
+Did I not immediately perish when I came out of the womb?
+Why excepted to the knees?
+Why did he breastfeed?
+For now, sleeping in silence, and I would rest in my sleep</t>
+  </si>
+  <si>
+    <t>Why did I not die in the womb?
+Having gone out from the womb, did I not immediately perish?
+Why was he taken out at the knees?
+Why was he suckled at the breasts?
+Now I could sleep peacefully and be silent.</t>
+  </si>
+  <si>
+    <t>Why am i not dead in the vulva?
+Going out of the womb was not immediately ruined?
+Why knees?
+Why breastfeed?
+Now we are sleeping silent, i need my sleep</t>
+  </si>
+  <si>
+    <t>For we have been purified even without that incense.
+But indeed, for crimes against men and for impieties against the gods, there is no atonement.
+Therefore, they pay the penalty, not so much through judgments—which once were nowhere, today in many places are nothing, yet where they exist, are often false—but the furies pursue and torment them, not with burning torches as in tales, but with the anguish of conscience and the torment of deceit.
+But if people ought to be restrained from wrongdoing by punishment, not by nature, what anxiety would trouble the wicked with the fear of punishment removed?
+However, none of them was ever so bold that he did not either deny that the crime had been committed by himself or invent some reason for his justifiable pain, and seek a defense of the crime in some law of nature.
+If the impious dare to call these things so, by what devotion will they be honored by the good?
+But if punishment, if the fear of penalty, not shame itself, deters from an injurious and criminal life, no one is unjust; rather, the wicked must be considered as incautious.</t>
+  </si>
+  <si>
+    <t>For we have been atoned for even without his perfumes.
+But truly there is no atonement for crimes committed against men and against gods.
+And so they play out punishments, not so much by judgments—which once were nowhere, today they are often non-existent, but where they are, they are often false—but they drive them and are driven by fury, not with burning fatigue as in fables, but with the anguish of conscience and the torture of fraud.
+But if punishment, not nature, ought to deter men from wrongdoing, what care should the wicked have by removing the fear of executions?
+But none of them was ever so bold as not to deny that the deed had been committed by him, or to invent some reason for his just pain, and to seek the defense of the criminal by some law of nature.
+What, if the wicked dare to appeal, with what earnestness are they finally worshiped by the good?
+But if punishment, if the fear of execution, does not deter shame itself from an injurious and criminal life, no one is unjust, but rather the impudent are to be thought unwary.</t>
+  </si>
+  <si>
+    <t>For even without his fumigations, we have been purified
+But truly, there is no expiation for crimes against humanity and the gods, for acts of impiety.
+Thus, they pay their dues, not so much through legal judgments—which were once nonexistent, are now often ineffective, and when they do exist are frequently unjust—but rather through the torments of their own conscience, haunted by the anguish of their misdeeds.
+If people were only deterred from wrongdoing by the fear of punishment, rather than by their inherent nature, what fear would torment the wicked once that fear of punishment was removed?
+However, no one has ever been so bold as to either deny committing the crime, or to invent some justification for their suffering, and to seek a defense of the crime in natural law.
+If the impious dare to call these things, with what devotion, then, will they be cultivated by the good?
+If punishment, if the fear of punishment, does not itself deter from a wrongful and criminal life, no one is unjust, but rather they should be considered reckless and wicked.</t>
+  </si>
+  <si>
+    <t>In fact, we are also purified without the incense of that.
+I swear to god that men are not exasperated.
+Therefore, there are no such punishments as trials that were once nowhere, nowadays there are no multifarious ones where they are, however, very often they are false - they are driving furies, not just burning torch stories, but anguish and torture of conscience.
+What if people should not ward off punishment from injury by nature, what concern would vex the wicked by raising the fear of punishment?
+However, none of them was ever so courageous that he either refused to commit a crime, or to pretend some cause of his suffering, and sought defense of the perpetrators by some natural right.
+What if you dare to call the wicked, what kind of studio will be worshiped by the good?
+If, in the years of punishment, no offense deters itself from wrongful crimes, no one is unjust, but the unsuspecting ones are rather unapproved.</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2512,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2469,21 +2533,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2991,14 +3052,14 @@
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="8.73046875" style="1"/>
-    <col min="25" max="25" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.7109375" style="1"/>
+    <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>254</v>
       </c>
@@ -3078,7 +3139,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>251</v>
       </c>
@@ -3160,7 +3221,7 @@
         <v>30.295000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>252</v>
       </c>
@@ -3242,7 +3303,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>252</v>
       </c>
@@ -3324,7 +3385,7 @@
         <v>32.085000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>251</v>
       </c>
@@ -3406,7 +3467,7 @@
         <v>32.65</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>252</v>
       </c>
@@ -3488,7 +3549,7 @@
         <v>37.545000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>253</v>
       </c>
@@ -3570,7 +3631,7 @@
         <v>37.575000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>251</v>
       </c>
@@ -3652,7 +3713,7 @@
         <v>41.06</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>251</v>
       </c>
@@ -3734,7 +3795,7 @@
         <v>38.545000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>251</v>
       </c>
@@ -3816,7 +3877,7 @@
         <v>40.584999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>251</v>
       </c>
@@ -3898,7 +3959,7 @@
         <v>40.015000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>253</v>
       </c>
@@ -3980,7 +4041,7 @@
         <v>42.075000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>251</v>
       </c>
@@ -4062,7 +4123,7 @@
         <v>40.915000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>253</v>
       </c>
@@ -4144,7 +4205,7 @@
         <v>43.725000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>252</v>
       </c>
@@ -4226,7 +4287,7 @@
         <v>47.134999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>253</v>
       </c>
@@ -4308,7 +4369,7 @@
         <v>44.795000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>252</v>
       </c>
@@ -4390,7 +4451,7 @@
         <v>43.254999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>251</v>
       </c>
@@ -4472,7 +4533,7 @@
         <v>45.83</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>253</v>
       </c>
@@ -4554,7 +4615,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>251</v>
       </c>
@@ -4636,7 +4697,7 @@
         <v>49.234999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -4718,7 +4779,7 @@
         <v>50.754999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -4800,7 +4861,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -4882,7 +4943,7 @@
         <v>50.034999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>251</v>
       </c>
@@ -4964,7 +5025,7 @@
         <v>49.75</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>253</v>
       </c>
@@ -5046,7 +5107,7 @@
         <v>53.34</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>252</v>
       </c>
@@ -5128,7 +5189,7 @@
         <v>47.384999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>251</v>
       </c>
@@ -5210,7 +5271,7 @@
         <v>48.730000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>253</v>
       </c>
@@ -5292,7 +5353,7 @@
         <v>53.584999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>253</v>
       </c>
@@ -5374,7 +5435,7 @@
         <v>47.620000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>252</v>
       </c>
@@ -5456,7 +5517,7 @@
         <v>49.83</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>253</v>
       </c>
@@ -5538,7 +5599,7 @@
         <v>48.39</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>251</v>
       </c>
@@ -5620,7 +5681,7 @@
         <v>52.39</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>251</v>
       </c>
@@ -5702,7 +5763,7 @@
         <v>52.795000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>252</v>
       </c>
@@ -5776,7 +5837,7 @@
         <v>57.6</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" ref="Y34:Y65" si="2">AVERAGE(I34:X34)</f>
+        <f t="shared" ref="Y34:Y50" si="2">AVERAGE(I34:X34)</f>
         <v>50.847500000000004</v>
       </c>
       <c r="Z34" s="2">
@@ -5784,7 +5845,7 @@
         <v>56.09</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>251</v>
       </c>
@@ -5866,7 +5927,7 @@
         <v>55.354999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>253</v>
       </c>
@@ -5948,7 +6009,7 @@
         <v>59.65</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>251</v>
       </c>
@@ -6030,7 +6091,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>251</v>
       </c>
@@ -6112,7 +6173,7 @@
         <v>57.894999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>253</v>
       </c>
@@ -6194,7 +6255,7 @@
         <v>58.11</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>253</v>
       </c>
@@ -6276,7 +6337,7 @@
         <v>55.89</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>253</v>
       </c>
@@ -6358,7 +6419,7 @@
         <v>59.06</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>251</v>
       </c>
@@ -6440,7 +6501,7 @@
         <v>61.244999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>251</v>
       </c>
@@ -6522,7 +6583,7 @@
         <v>63.540000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>251</v>
       </c>
@@ -6604,7 +6665,7 @@
         <v>65.31</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>251</v>
       </c>
@@ -6686,7 +6747,7 @@
         <v>67.344999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>252</v>
       </c>
@@ -6768,7 +6829,7 @@
         <v>68.47999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>252</v>
       </c>
@@ -6850,7 +6911,7 @@
         <v>65.254999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>252</v>
       </c>
@@ -6932,7 +6993,7 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>253</v>
       </c>
@@ -7014,7 +7075,7 @@
         <v>63.344999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>251</v>
       </c>
@@ -7117,25 +7178,24 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" style="13"/>
-    <col min="2" max="2" width="18.46484375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.9296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.73046875" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="12"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -7211,7 +7271,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>131</v>
       </c>
@@ -7230,56 +7290,56 @@
       <c r="G2" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="16">
         <v>6.85</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="16">
         <v>29.13</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="16">
         <v>46.24</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="16">
         <v>34.51</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="16">
         <v>7.57</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="16">
         <v>30.8</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="16">
         <v>47.62</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="16">
         <v>39.549999999999997</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="16">
         <v>5.73</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="16">
         <v>29.51</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="16">
         <v>47.06</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="16">
         <v>36.65</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="16">
         <v>3.68</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="16">
         <v>25.3</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="16">
         <v>43.35</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="16">
         <v>32.56</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>255</v>
@@ -7299,7 +7359,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>256</v>
@@ -7317,7 +7377,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>257</v>
@@ -7335,7 +7395,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>258</v>
@@ -7346,14 +7406,14 @@
       <c r="E6" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="16" t="s">
         <v>299</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>259</v>
@@ -7364,14 +7424,14 @@
       <c r="E7" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="16" t="s">
         <v>300</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>260</v>
@@ -7389,7 +7449,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>261</v>
@@ -7400,14 +7460,14 @@
       <c r="E9" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="16" t="s">
         <v>302</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>262</v>
@@ -7418,14 +7478,14 @@
       <c r="E10" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>263</v>
@@ -7436,14 +7496,14 @@
       <c r="E11" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="16" t="s">
         <v>304</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>264</v>
@@ -7454,14 +7514,14 @@
       <c r="E12" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="16" t="s">
         <v>305</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="11" t="s">
         <v>265</v>
@@ -7472,22 +7532,34 @@
       <c r="E13" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="17" t="s">
         <v>306</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>188</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
         <v>266</v>
@@ -7498,16 +7570,16 @@
       <c r="E15" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="16" t="s">
         <v>351</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>267</v>
@@ -7518,50 +7590,50 @@
       <c r="E16" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="16" t="s">
         <v>347</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="16" t="s">
         <v>330</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="16" t="s">
         <v>331</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="16" t="s">
         <v>349</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="11" t="s">
         <v>270</v>
@@ -7569,25 +7641,37 @@
       <c r="D19" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="11" t="s">
         <v>357</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>190</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="D20" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>266</v>
@@ -7598,16 +7682,16 @@
       <c r="E21" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="16" t="s">
         <v>351</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>267</v>
@@ -7618,50 +7702,50 @@
       <c r="E22" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="16" t="s">
         <v>347</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="16" t="s">
         <v>330</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="16" t="s">
         <v>331</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="16" t="s">
         <v>349</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="11" t="s">
         <v>270</v>
@@ -7669,25 +7753,37 @@
       <c r="D25" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="11" t="s">
         <v>357</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="D26" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>321</v>
@@ -7698,7 +7794,7 @@
       <c r="E27" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="16" t="s">
         <v>346</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -7707,25 +7803,25 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="16" t="s">
         <v>334</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="16" t="s">
         <v>345</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="1" t="s">
         <v>323</v>
@@ -7736,73 +7832,73 @@
       <c r="E29" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>344</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="16" t="s">
         <v>336</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="16" t="s">
         <v>343</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="16" t="s">
         <v>337</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="16" t="s">
         <v>342</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="16" t="s">
         <v>338</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="16" t="s">
         <v>341</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="16" t="s">
         <v>339</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -7815,8 +7911,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7826,6 +7922,7 @@
     <mergeCell ref="A26:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7837,12 +7934,12 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -7892,7 +7989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -7947,7 +8044,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>237</v>
       </c>
@@ -8002,7 +8099,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8021,7 +8118,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>241</v>
       </c>
@@ -8035,7 +8132,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -8052,7 +8149,7 @@
         <v>39.794234693877563</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>244</v>
       </c>
@@ -8069,7 +8166,7 @@
         <v>41.041923076923069</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -8086,7 +8183,7 @@
         <v>43.162307692307685</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
@@ -8103,7 +8200,7 @@
         <v>39.707884615384621</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -8120,7 +8217,7 @@
         <v>40.255576923076923</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>248</v>
       </c>
@@ -8137,17 +8234,17 @@
         <v>34.928250000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -8169,14 +8266,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8235,7 +8332,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -8296,7 +8393,7 @@
         <v>49.234999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -8357,7 +8454,7 @@
         <v>52.39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -8418,7 +8515,7 @@
         <v>45.83</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -8479,7 +8576,7 @@
         <v>32.65</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -8540,7 +8637,7 @@
         <v>50.754999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -8601,7 +8698,7 @@
         <v>48.730000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>131</v>
       </c>
@@ -8662,7 +8759,7 @@
         <v>30.295000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
@@ -8723,7 +8820,7 @@
         <v>40.015000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>145</v>
       </c>
@@ -8784,7 +8881,7 @@
         <v>38.545000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>152</v>
       </c>
@@ -8845,7 +8942,7 @@
         <v>40.584999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
         <v>19.103000000000002</v>
@@ -8932,12 +9029,12 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8996,7 +9093,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -9057,7 +9154,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -9118,7 +9215,7 @@
         <v>67.344999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -9179,7 +9276,7 @@
         <v>57.894999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -9240,7 +9337,7 @@
         <v>63.540000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -9301,7 +9398,7 @@
         <v>41.06</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -9362,7 +9459,7 @@
         <v>40.915000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -9423,7 +9520,7 @@
         <v>68.47999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -9484,7 +9581,7 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -9545,7 +9642,7 @@
         <v>65.254999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -9606,7 +9703,7 @@
         <v>55.354999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -9667,7 +9764,7 @@
         <v>52.795000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -9728,7 +9825,7 @@
         <v>49.75</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -9789,7 +9886,7 @@
         <v>73.055000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
@@ -9850,7 +9947,7 @@
         <v>61.244999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>118</v>
       </c>
@@ -9911,7 +10008,7 @@
         <v>65.31</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>120</v>
       </c>
@@ -9972,7 +10069,7 @@
         <v>56.09</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>127</v>
       </c>
@@ -10033,7 +10130,7 @@
         <v>47.134999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
@@ -10094,7 +10191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
@@ -10155,7 +10252,7 @@
         <v>59.65</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>166</v>
       </c>
@@ -10216,7 +10313,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>168</v>
       </c>
@@ -10277,7 +10374,7 @@
         <v>44.795000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
@@ -10338,7 +10435,7 @@
         <v>49.83</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>177</v>
       </c>
@@ -10399,7 +10496,7 @@
         <v>43.254999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>179</v>
       </c>
@@ -10460,7 +10557,7 @@
         <v>37.545000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>181</v>
       </c>
@@ -10521,7 +10618,7 @@
         <v>47.384999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
@@ -10582,7 +10679,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>190</v>
       </c>
@@ -10643,7 +10740,7 @@
         <v>32.085000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>192</v>
       </c>
@@ -10704,7 +10801,7 @@
         <v>58.11</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>199</v>
       </c>
@@ -10765,7 +10862,7 @@
         <v>53.584999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>201</v>
       </c>
@@ -10826,7 +10923,7 @@
         <v>53.34</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>272</v>
       </c>
@@ -10887,7 +10984,7 @@
         <v>59.06</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -10948,7 +11045,7 @@
         <v>63.344999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>211</v>
       </c>
@@ -11009,7 +11106,7 @@
         <v>55.89</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>213</v>
       </c>
@@ -11070,7 +11167,7 @@
         <v>50.034999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>220</v>
       </c>
@@ -11131,7 +11228,7 @@
         <v>42.075000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>222</v>
       </c>
@@ -11192,7 +11289,7 @@
         <v>37.575000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>224</v>
       </c>
@@ -11253,7 +11350,7 @@
         <v>48.39</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>231</v>
       </c>
@@ -11314,7 +11411,7 @@
         <v>47.620000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>233</v>
       </c>
@@ -11375,7 +11472,7 @@
         <v>43.725000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B41">
         <f>AVERAGE(B2:B40)</f>
         <v>30.547692307692298</v>
@@ -11462,12 +11559,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11526,7 +11623,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -11587,7 +11684,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -11648,7 +11745,7 @@
         <v>63.540000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -11709,7 +11806,7 @@
         <v>68.47999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
@@ -11770,7 +11867,7 @@
         <v>55.354999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -11831,7 +11928,7 @@
         <v>73.055000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -11892,7 +11989,7 @@
         <v>56.09</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
@@ -11953,7 +12050,7 @@
         <v>59.65</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>170</v>
       </c>
@@ -12014,7 +12111,7 @@
         <v>49.83</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>181</v>
       </c>
@@ -12075,7 +12172,7 @@
         <v>47.384999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>192</v>
       </c>
@@ -12136,7 +12233,7 @@
         <v>58.11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>272</v>
       </c>
@@ -12197,7 +12294,7 @@
         <v>59.06</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>213</v>
       </c>
@@ -12258,7 +12355,7 @@
         <v>50.034999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>224</v>
       </c>
@@ -12319,7 +12416,7 @@
         <v>48.39</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ref="B15:Q15" si="2">AVERAGE(B2:B14)</f>
         <v>37.421538461538468</v>
@@ -12404,12 +12501,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12468,7 +12565,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -12529,7 +12626,7 @@
         <v>67.344999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -12590,7 +12687,7 @@
         <v>41.06</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>94</v>
       </c>
@@ -12651,7 +12748,7 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -12712,7 +12809,7 @@
         <v>52.795000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -12773,7 +12870,7 @@
         <v>61.244999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -12834,7 +12931,7 @@
         <v>47.134999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>166</v>
       </c>
@@ -12895,7 +12992,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>177</v>
       </c>
@@ -12956,7 +13053,7 @@
         <v>43.254999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -13017,7 +13114,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>199</v>
       </c>
@@ -13078,7 +13175,7 @@
         <v>53.584999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>209</v>
       </c>
@@ -13139,7 +13236,7 @@
         <v>63.344999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>220</v>
       </c>
@@ -13200,7 +13297,7 @@
         <v>42.075000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>231</v>
       </c>
@@ -13261,7 +13358,7 @@
         <v>47.620000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ref="B15:Q15" si="2">AVERAGE(B2:B14)</f>
         <v>29.661538461538463</v>
@@ -13348,12 +13445,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13412,7 +13509,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -13473,7 +13570,7 @@
         <v>57.894999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -13534,7 +13631,7 @@
         <v>40.915000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -13595,7 +13692,7 @@
         <v>65.254999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
@@ -13656,7 +13753,7 @@
         <v>49.75</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
@@ -13717,7 +13814,7 @@
         <v>65.31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
@@ -13778,7 +13875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>168</v>
       </c>
@@ -13839,7 +13936,7 @@
         <v>44.795000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -13900,7 +13997,7 @@
         <v>37.545000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>190</v>
       </c>
@@ -13961,7 +14058,7 @@
         <v>32.085000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>201</v>
       </c>
@@ -14022,7 +14119,7 @@
         <v>53.34</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>211</v>
       </c>
@@ -14083,7 +14180,7 @@
         <v>55.89</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>222</v>
       </c>
@@ -14144,7 +14241,7 @@
         <v>37.575000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>233</v>
       </c>
@@ -14205,7 +14302,7 @@
         <v>43.725000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ref="B15:Q15" si="2">AVERAGE(B2:B14)</f>
         <v>24.56</v>
